--- a/target/test-classes/MedicareTestData/Medicare_ViewProduct.xlsx
+++ b/target/test-classes/MedicareTestData/Medicare_ViewProduct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Intas</t>
   </si>
   <si>
-    <t>6 entries</t>
-  </si>
-  <si>
     <t>asc</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Dolo 650</t>
+  </si>
+  <si>
+    <t>8 entries</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -583,7 +583,7 @@
         <v>48</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -612,7 +612,7 @@
         <v>54</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -620,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>42</v>
       </c>
       <c r="I5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>-1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1045,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1276,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1296,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>5</v>
